--- a/Conteudo/Somativa/Projeto integrador/Notas PBE1 Tech FIt.xlsx
+++ b/Conteudo/Somativa/Projeto integrador/Notas PBE1 Tech FIt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fechamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E303B0-7AA6-4DAB-B7E9-AEA255E894F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F786084-7552-4978-843F-51CA30FEEEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0B08583C-8658-4E71-8A48-6F35B90C6FE1}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -614,6 +614,9 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -630,6 +633,9 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="1">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -671,6 +677,9 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C11" s="1">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -786,6 +795,9 @@
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C22" s="1">
+        <v>85</v>
+      </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
@@ -824,6 +836,9 @@
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C26" s="1">
+        <v>90</v>
+      </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
@@ -840,6 +855,9 @@
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C28" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
@@ -859,6 +877,9 @@
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C30" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
@@ -874,6 +895,9 @@
       </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="C32" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
